--- a/Data/Simul/Test3/Calib_8.xlsx
+++ b/Data/Simul/Test3/Calib_8.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1401219562441475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1399133561660331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1391053231616839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.1432155762479856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.144643335636657</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1418194320492651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1634978971166122</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1825639095072866</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.2009993031617444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.2072654723655862</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.2208145659623956</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.2350053604076681</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.1871181972320881</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.2447264552148863</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.2088078903009794</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.2532747142798312</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.2418819525480795</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.3705022799077112</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.4711668742197208</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.5181392755855601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.4926887543863956</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.6939990517825416</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.7354314385467857</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.6633043343293615</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.2487170340529092</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.4823448250421227</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.7144156963701705</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.8684876709221453</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1517136273500643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1528814075872423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1556509411548959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1439493662841933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.139888628613466</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1476693260392068</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.1153188786943611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.08509917135545197</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.04376020444681828</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.04182487532294733</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.04798351672272452</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.04613684538972807</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.004939350774064856</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.01122814376217553</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.003243340508641635</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.003376996972219458</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.001303892935620169</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.003248964365745492</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.008174011978339427</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.004061760250757925</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.000750361603536748</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.00314255355548456</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.004918028196730053</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>0.01049597649651057</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>0.03288955522712309</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>0.01765982869543874</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>0.007255413871363898</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>0.002111259160362274</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1517136408120353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1528814223106253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1556509598654256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1439493658780335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1398886216584903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.1476694110752609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.1153195581306376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.08510014102577847</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.04376106984297352</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.04182582457359483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.03751961225262141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.0358941861196768</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.05847147737012199</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.05058018912659663</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.05857342254716379</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.05775090093563978</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.06142443622966887</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.0529792927287772</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.03795180792077583</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.04026667573310778</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.04973406078642805</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.009621886030425729</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.002085180533359503</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>9.672717533253178e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>1.777811675867711e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>1.856219283450772e-08</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>1.689383330011631e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>1.565612753314655e-12</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1517187085192691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1528869648132071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1556580032805839</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1439492127830744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1398860032710242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.147665031287616</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1153054193006787</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.08508152040486899</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.04374508339636723</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.0418084103159139</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.04470685805616937</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.04766776795327851</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.03717261033409205</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.04909910228234229</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.04147729558701913</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.05017063265655512</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.04812770053784946</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.07298012326683526</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.09182404534491716</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.1012814668960946</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.1067976007850977</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.117270569549517</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.1046968335357552</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.06986632834866521</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.01505038166189111</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.02739593549067016</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.03544824429720144</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.0360649178629172</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1295138589381042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1275884373584874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1233602618687775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1404695273919084</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1464109874168504</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1377135724679841</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1644752111133513</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.1905576054376893</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.2334573883056808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.2302528889638396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.2016407222868893</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.1896851631927315</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.3336325464448697</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.273407323129415</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.3252814678161972</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.2944314552800427</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.311267258490399</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.2197397294764945</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.1300977512104412</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.1262984923551415</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.1591468476588931</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.06175609739864926</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.02446835159802669</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.003674450378608671</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>5.472929280920066e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>6.692339630609303e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>8.067591959361952e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>9.566978846597477e-10</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1451735192216993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.145634069254657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1464164200390506</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.143809052546309</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.14289154205054</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1395873051331611</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1615567306213287</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1811487378709489</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.2016318737527505</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.2072069902683467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.2457241837501812</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.2557192058680187</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.04648985429711613</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.0976746952062285</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.03809088110702149</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.04337662035741158</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.02077064194806455</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.05122216699969537</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.121097330845971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.072231631384206</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.01801064779442693</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.07159211693666431</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.1169553709303588</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.2517514133477584</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>0.7032849538525344</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>0.4725922684571658</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>0.2428805583197905</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>0.09333615100795385</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1300446889146801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1282143425097476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1241580906295826</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1406578988684957</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1463908813529722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.1378759219475061</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1645263050230305</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.1904489143979759</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.2326450770936653</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.2298155381897715</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.2016105409690186</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.1898914710688984</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.3321759635476473</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.2732840912783558</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.3245257021329772</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.2976186795183002</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.3152241173103185</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.2293274432547409</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.1396881784798344</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.1377206977951322</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.172871726985222</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.04261772474671754</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.01144479665898405</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.000810769923763097</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>3.168131565403082e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>4.314127789086296e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>6.296615887196892e-09</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>8.835789168887454e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1409905283486732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1436562168538984</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1458469059186623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1430370053620262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1426705451425457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.100169622864525</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.04846261428208471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.02469108248315843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.03904216769653782</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.01869479284198756</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.01965351273219648</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.01795786462779402</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.01551700061942131</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.0109970101568961</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.001217448908754002</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.001789743626254022</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.0006766753425297172</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>5.509735266717391e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>4.654813501792433e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>1.92204795294548e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>9.718789330933097e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>1.692116560050966e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>4.172537433656878e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>2.338381971164544e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>7.048141684868544e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>1.109084064186922e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>2.396363034531901e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>2.037918206139081e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1486641192639326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1397833761932583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1338603057475238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1440559787545641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1480180590268019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.21013541432278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.2788986569922344</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.3072388563050055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.2917513874467742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.3153718325478868</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.1487883080386741</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.3259521639082</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.4842624178431993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.6588651642117238</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.9461246388392046</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.9312674974011472</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.9599839085165586</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.9791046573726936</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.9755445779535816</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.9769165661395631</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.9739992658507495</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.963120253913052</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.9675296388906804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.9612969816440012</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.949073779897288</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.9465548304566586</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.9535782698481877</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.9399449452112343</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1486641283384563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1397833719935933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1338602917179287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1440559790422059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1480180626017933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.2101339309108757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.2788948140705141</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.3072328860939632</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.2917474374030947</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.315367404967699</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.4665255547480996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.3181485169660698</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.2008767377071636</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.1066405757728138</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.005540316367345964</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.004966838139712234</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.001316634758122952</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>5.206123568924611e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>2.201648066777011e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>5.217372027747419e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>7.50402724646733e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>5.618657681752761e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>5.719567522676428e-08</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>8.926791145656289e-09</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>4.576152696194585e-09</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>1.887135701663732e-10</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>1.195058967555986e-11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>1.132449067028471e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1486675444364179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1397817910946116</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1338550103344734</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1440560871919712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1480194079792065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.210161868630367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.2789646646907608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.3073402081895487</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.2918192807208321</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.3154478180013007</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.3284217795750947</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.3027285173033487</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.2638641659314312</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.1885303168370508</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.02145515224700918</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.03130494660919613</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.01173616981049448</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.0009347138970932303</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.0007785575790045245</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.0003175066069345401</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.000125754035776239</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0001930231741801654</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>4.037037060023573e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>1.797940816715791e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>4.173017069545904e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>4.610507755651191e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>7.862402178187919e-07</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>4.097797916811368e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1341882593433802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1476499742471777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.156203796423008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1404704660458938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.1335747706939595</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.08385656993258293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.03320245914041297</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.01458603164891333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.02351290626116263</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.008538911960210603</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.01309976533570398</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.008665735472949335</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.00528344056994053</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.002716573706982364</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.0001334639504875447</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.0001014796899191578</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>2.465059413244294e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>8.741094917599272e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>3.072056760036485e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>6.299739756221002e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>1.219691272497632e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>1.173988368820191e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>1.503612470412202e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>3.277867399302512e-10</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>2.743146328568176e-10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>1.153263512874834e-11</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>7.493622225536941e-13</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>7.379334780104131e-14</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1443012178945115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1419051025975569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1406625390833843</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.143682023941806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1455720658710472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1010735355573104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.04794125759584016</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.02407202584086706</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.03820440394381929</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.01782051575732752</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.01010871771914353</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.01766210988892428</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.02476551013370443</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.02945167077786813</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.02539095628769825</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.03046200667368738</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.02623552621613861</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.01985164558240342</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.02360764973832524</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.02274135462191195</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.02586448740105898</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.03666921893262721</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.03242575849246362</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.03868269113586813</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.05087743683477992</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.05343944974679671</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.04642070426229482</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.06005444121591708</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1345242023746284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1474401670199039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1557111507750196</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1406424596615329</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1341270886846458</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.08446905778155886</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.03363553322815292</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.01483890943854391</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.02392241652777928</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.008758723923587765</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.01340236185108781</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.008885091832713694</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.005430727195139613</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.002798688536665159</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.0001380233995005917</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.0001074878600836567</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>2.643476202322485e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>9.504499617197506e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>3.429077268121485e-07</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>7.178263551870118e-08</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>1.132344696867775e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>9.208888254947796e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>1.009534191256052e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>1.754145081555194e-10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>1.050844290332529e-10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>4.478749505123281e-12</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>2.963292037220292e-13</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>2.998260669496654e-14</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1459415292311833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1460753415046171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1468491114729547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1466993768037125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1457565871194329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1428531806280664</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1398104670176853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.1593960290366356</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.1699461489883943</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.1543049094166678</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.1586491080689497</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.1571294252258223</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.1519791428946735</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.1426116659215262</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.1297529684897812</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.1272301775427046</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.1075543580654355</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.04058939499567483</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.03001756841265892</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.03421731565048376</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.01975504730489673</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.01288020806159228</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.003993254563840462</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.001823778891161668</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.0009968167035517099</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>0.0002241667847162477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>9.248089675741805e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>6.246763515799344e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1309481778509822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1310689414899908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1272745799949082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1294351002835535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1339584041815412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.1415470304277694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.1511542436683015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.1241438871169051</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.1128241120153812</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.1408225298468301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.09373947361654685</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.1263392957036518</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.08545546145510713</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.04783872012042398</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.02563301838109466</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.01560756104888989</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.006769059409390315</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.001541243112386867</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.0007323008646873037</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.0004737188280140032</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.0001595643096998598</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>6.66289675325351e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>1.844193754289716e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>5.063592917350571e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>1.983916876508841e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>2.929841619844033e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>8.853568611244249e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>5.185883784744473e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1309481615289498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1310689248877527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.127274558793147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1294350809521732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1339583903702852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.1415471012236045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.1511544591773362</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.1241446434019065</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.112825133273122</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.1408235523446486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.1653655015402444</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.1476313157189339</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.1744583757399213</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.2024233211777849</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.2235633342985877</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.2339805470208225</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.2478796610570017</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.2369786783454939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.2292720932451213</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.2357578116882835</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.2722704286700605</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.2993010688122971</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.4002798232658622</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.4496243568075208</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.4918269614467067</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.5161701845561948</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.53253169252815</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.5396945475837508</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.130942017335623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1310626751736725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1272665777159846</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1294278038542233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1339531911716312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.1415401138825717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.1511445507923599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.1241263774850593</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.1128026948009539</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.1407999537916687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.1441493427579044</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.1432016593708342</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.1378163417034006</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.1285235448963115</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.1162215352771056</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.1142988924151289</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.0972199796374954</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.03724240018718043</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.02769018653210155</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.0315476676461382</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.01994722143536059</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.01394975262924588</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.004712034058128896</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.002375241120200302</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.001387599941982044</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.000353505783736585</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.000158714132950023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>0.0001114120871703221</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1614333970106384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.161071754485386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.16721203577167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1634127859954314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1561131204087698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.1477122644747517</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.1364898992659402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.1577071084235272</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.1643829334916247</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.1380873108067877</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.1641186896657586</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.1448905238212341</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.1756224347358183</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.208189883188771</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.2337350439170796</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.2416953130662142</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.2645456513326802</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.3489640987953974</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.366471269652691</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.3578742443512815</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.326393875450155</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.3004065309202564</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.2015896671767521</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.159865352756053</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.1294188243655851</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.1277120459158982</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.1261493284015513</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.1254061862327528</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1391715277336375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1393597531290944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1379883144926571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1390291453240386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1406482926652987</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1374032549276846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.1337983288908133</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.1528485772483698</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.1627559428714929</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.1466887457242403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.1095389037032054</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.1355188271311485</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.0988862725807266</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.06234773631639544</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.03776046011536578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.02526808325623099</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.01221410839941875</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.002753640556493157</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.001393837282194861</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.001100114276317175</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.0003924798058546769</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>0.0001723246800374268</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>4.749911854083802e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>1.369797019423261e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>5.539303138025244e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>8.448673261522126e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>2.617231300415769e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>1.550530964257778e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1606151893089859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1602926093294865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1661348217586784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1625607067868676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1556120140830411</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.1473970544355517</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.1364480511875637</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.1576333772875965</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.1644630345590309</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.1384729980691567</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.1644389806473905</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.1452889530283753</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.1757819708903523</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.208065128378787</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.2333336395209855</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.2419194256500089</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.2638171820985781</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.3319305440073734</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.3444227440105451</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.3390291275594819</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.3610813830239726</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.3732234859290385</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.3893592798793327</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.3862925088619527</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.3763622743221599</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.3555389591079661</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.3410674337817751</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.3347251795492337</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1406847212751972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1385794186431037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1366902272723795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1408537378570208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1396874197908014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1297588032651616</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1118145796883853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.09154694381113969</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.06359717145948232</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.02911727740455035</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.02615155929551902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.0344293285527054</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.03190087450351817</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.02715124033886607</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.0266108255905046</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.02573740333469886</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.01337609968213256</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.008573137173306303</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.02272586345393116</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.02050417542151059</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.02536289021022261</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.03215448059818317</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.05563644758915309</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.04215216868263719</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.0396564666354197</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.03222617976213221</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.01633590158190127</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.02871117242551728</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1502018064896288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1564456268709735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1615840142794207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1512446254768764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1551223870187396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1721920420809593</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1997603855213397</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.2286338948541812</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.2647837098526345</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.3046326054225404</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.4383482927776993</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.1596928122594944</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.03906511681223993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.01125391603722491</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.006499096075047669</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.003310595952683825</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.0001621714830853258</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>1.980880621388312e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.0002273368116463367</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>7.176686180244831e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>4.285780751996385e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>2.305728774566066e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>2.620339346375737e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>2.191394732282181e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>2.428756525413247e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>1.055063471637379e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>7.651535812205579e-11</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>1.751607799236907e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1502018173562094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1564456477320882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.161584043833453</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1512446363417627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1551224035573179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.172191956762917</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.1997599761620831</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.2286330453213681</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.2647819373880452</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.3046286732895938</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.2033631940694948</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.3908129975173104</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.5415559571940505</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.6208469903703983</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.6323964612698459</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.6447394846810863</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.7585875557278359</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.798166708291329</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.6810531250063395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.7043120169760311</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.6461230620558625</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.5637046272558757</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.338552047007619</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.3893058791330871</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.3290348218381825</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.2833779423540443</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.3321795889144294</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.0005596105224058436</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1502059080081843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1564535008330076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1615951694312897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1512487261854223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1551286292012271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1722006797931305</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1997755224105772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.2286575001578402</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.2648240481454921</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.3047102239914791</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.2757165247272838</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.3587929501982762</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.3283684919271844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.2768194754549438</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.2705511601160683</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.2623557885191749</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.1390256454930662</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.09023877079693583</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.2342451444613978</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.2126101441802894</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.2639554545111205</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.3379336958909603</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.5482248130642549</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.4970473916816311</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.5482886629296967</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.6067434537916181</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.5480439026907945</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.9703790900869368</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1316885560257843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1224689588955041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.115048872317698</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1295856401874299</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1237020033180376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.1085824710003822</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.08600926531897786</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.06378771242421054</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.03840767369393846</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.01383730250003989</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.008901099224520573</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.0177679226558263</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.02563716872391335</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.03021737044210834</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.03065527939317532</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.03097119555969446</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.04448586690059655</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.05198417736914566</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.0302043038247603</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.03053701774257367</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.0332333844078251</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.03638824439150136</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.03596063195095805</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.04522571619208405</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.05641512332919908</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.05200619222635645</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.06772151691759257</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.0001988578211954759</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1448718157382999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1463387954551325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1473954962265546</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.145634918595608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.146699135939578</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1355672002435784</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.11591541823417</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.09404803193617134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.06448146768226305</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.02887510418558493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.03836117374252095</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.02027201499807304</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.007240779825783274</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.002853022311094077</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.001970974992259737</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.001185340733584372</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>9.192084412900168e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>1.56587677126793e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.0001516058411272231</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>6.008403582419085e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>4.263022869556779e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>2.772648589403378e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>3.610029993559846e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>4.281021254718e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>6.633809588408515e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>4.252780445767854e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>5.08491651016645e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>1.566465239363402e-10</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1321453751066961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1232680515701902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1161021766392044</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1301877153558797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1245380211742984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.109506846853871</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.08696485266446695</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.06469287149508901</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.03912399177814423</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.01419881320621146</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.009158156162961558</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.0182319738183144</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.0262316110133102</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.03085798504536479</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.0313162025630985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.03170019121907722</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.04427073986915448</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.05100173879535658</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.03139262060079779</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.03190479478196871</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.0312397207787536</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.0297681680898399</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.02156375669461571</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.02626237189457348</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.0266040190108905</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.02564617878740971</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.03571908931027522</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.0001512689697819659</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1417506015118633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1435556744630919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.145143062241639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1485123339070674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1480839230274972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1184902383954195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1076479626073435</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1284053901165989</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1523619063639825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1936875616619577</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.2300987153819597</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.2261783062796912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.2027939890795682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.173353852269726</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.1511845532520505</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.08549097282363459</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.06112294399771623</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.04385279923183856</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.01307445978655959</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.01301677485026111</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.001915954926187051</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.001612338286768384</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.0006799089326105078</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.0006333735463807063</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.0001816302676813492</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.0001045600658354186</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>7.973522385128197e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>5.556042125078357e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1465614459764508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1423696465080396</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1355454602716866</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1250275553753139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1296879683923515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.178127955977974</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1976372472838097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.1647705666566356</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.139036453665345</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.08633782545225223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.06043669531758674</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.02729855755873256</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.00784315289425238</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.004542814460526759</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.003306359981981711</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.001014873735907792</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.000323869512524762</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>8.141039690991895e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>2.390998834333787e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>3.404647596483863e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>1.939974822106649e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>5.92458590814321e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>1.16725357962621e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>8.947929976408127e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>1.811338559666671e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>7.935839672725189e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>4.825482951098825e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>2.939063200004896e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1465614514874947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1423696442863517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1355454492361645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1250275285024926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1296879455893715</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1781271263719938</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1976366484012287</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.1647705487409007</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.1390379330711715</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.08633935420553238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.08642212213105908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.1079962352991142</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.1289139166702968</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.1368914109480601</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.140419406925041</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.1418484401155775</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.1448002423395419</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.1529210332704893</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.1157671576393671</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.1249522695933708</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.240751727618753</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.2073672150840801</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.2091470409269323</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.2171830871205021</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.3149807027274191</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.3223510437665344</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.3197312871047403</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.3255708028127764</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1465635260859796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1423688078192496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1355412949856694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1250174124477465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1296793613275393</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.1781292923431076</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.19763342576052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.1647594457373687</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.1390024336882826</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.08630664651974113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.102799560025443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.100134606384358</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.08856037813731918</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.07529500546252973</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.06548093818784462</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.03741991187791336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.02700737351008671</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.01967977999623472</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.005905741406209586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.005960526591739727</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.0007935148710565184</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.0007919828790404126</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.0003893292370322718</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.0003705823830069443</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.0001135732269682532</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>6.983883140853646e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>5.624980517202776e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>4.064700909191454e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1372357235789797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1430164374143368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1538535114779566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1696029409093219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1615022934892031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1179472798677277</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.09944055225205946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.1283651366107494</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.1439433148427498</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.1826140082675907</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.1782300420312842</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.2252539803284403</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.2707002246395832</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.2954931228671689</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.3129897839862874</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.3688641369000563</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.3869773714135134</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.3944527527191815</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.4478316425059136</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.4399416131199126</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.224298219697362</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.2686510363091591</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.247336919159993</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.243033221066183</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.1261978452712526</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.1263783103900268</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.1263746211593716</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.1264855967485119</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1438630635206478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1432310568329173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1409454180501683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1382301477155103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1404225760568441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1113418424606452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1004379467128588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1207037043724263</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.142560832267263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.1817643183943356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.16312774208456</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.08720918648476825</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.02976644744174752</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.01873446013682617</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.01418721949650274</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.004659910087566242</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.001662007853343772</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.0004582375099260286</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.000133917912350096</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>2.04842016862129e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>1.056575744225108e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>3.547877508517273e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>7.504355558685348e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>5.894660134431677e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>1.235295866873157e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>5.541853131476181e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>3.435239174599418e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>2.114865537704168e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1374641878385841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1430887326760131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1534258037367155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1685820811425473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1609359321171933</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1178362645831324</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.09956621698217988</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.1282252077653205</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.1440571261012057</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.1829502854985901</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.1788851230281072</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.2259291276648956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.2714218911372328</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.2956893338551624</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.3124317381702921</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.3607017544593441</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.3781061913732733</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.3885539868754199</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.4172631707612567</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.4161049269954331</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.532228077154377</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.5215732871048527</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.5424459345825182</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.5387790569386142</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.5585261068637064</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.5510961835918239</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.55375806752899</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.5478473689206504</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1413913471114578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1417491306866381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1427620458042899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1448624921763959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1427681000079606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.1946579560600221</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1953167898849647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1880639158103824</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1696124729981036</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1391469097986247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1566607200263465</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1463502205973785</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1643879729635629</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.1624100119000371</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.1656819093084916</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.1588496786361549</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.2017397505866562</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.1807889596257105</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.09348256601321431</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.05383248951409325</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.08454530757677003</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.05140385296710404</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.01355218114102898</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.01848998044669123</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.004289979883497581</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.000612819550967826</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.0002607870971190067</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>6.23383024920242e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1476355536718803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1476140778183032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1453116661378029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1386836299394844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1460268661680527</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.04290251607907825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.03053826224960022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.06213468708676549</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1025054265439387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.1609611627054365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.06428431584405973</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.02776774877605811</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.06819464894912247</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.1614357303328528</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.07494684195093443</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.1734090691773321</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.1119229904716841</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.1881426921527953</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.3678096362428221</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.4492242782950489</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.3953057026365477</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.440379256466163</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.5146996625141049</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.4609970636455301</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.495736106398858</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.5413850210897496</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.5187906426830257</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.4977911253690376</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1476355609111225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1476140839371427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.145311667906064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1386836216851227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1460268683609089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.04290317499548321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.03053882511480096</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.06213538960692487</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1025060039421448</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.1609616596996457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.2085259876421918</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.2447621712769418</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1992396064135089</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.131357920746982</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.1925865698674378</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.1263163492027901</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.1356412326592525</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.08987108283677282</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.02474490403698823</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.009880232970418176</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.007340115248137403</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.002149701126941547</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.0001996669343229945</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>7.359221969039452e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>4.415872853702933e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>1.766238431961845e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>1.095890970461499e-08</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>1.771243766770981e-10</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1476382860944132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1476163872385528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1453123333745859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1386805142099116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1460276936054382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.04289190902460444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.03052916552471018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.0621234746247849</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.1024965147280375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.1609539201557309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1801250794488262</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1670093991305295</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.1893219558258622</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.189175773867599</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1910451252666944</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.1815729578060662</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.2303901550515169</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.2051018006483717</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.104515811021864</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.05971108080429555</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.09266761822680961</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.05017166537898994</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.01091398139773282</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.01267708509816096</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.00230409632008939</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.0002449192636774301</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>7.244732685203753e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>7.80086793237318e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1356476744526864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1353027076957933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1384524531856361</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1483945607943961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1371335974579112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.237873267221864</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.2553743982814986</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.2161175381499968</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.1748937471029373</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.1188979970524766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.1551786088292842</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.1857383531625533</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.1459624051014615</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.09202394522683914</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.1402734346972493</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.08351947657304233</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.08256361219144863</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.05037619526722441</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.01186883315970156</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.004280029306752218</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.004769807866563121</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.001731370898404534</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.0002105669969090599</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.0001189494121887132</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>1.016077003177472e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>4.147596651019139e-07</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>2.671911208196449e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>4.413407298565377e-10</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1441155688086152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1444531579034031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1441330301232799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1424171053835168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1445358678110516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.2018910737614487</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.2038969431524871</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1938436131610543</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.1729816328642822</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1394334307375031</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.0791467118142643</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.04180848143909768</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.08591373031807678</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.1706350969833766</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.09415354718231499</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.1910291807031221</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.1523395371985244</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.2329887842115614</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.3848788791507951</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.4184244268722311</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.4113472899977332</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.4528987988589077</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.4602958052903884</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.5075889106307904</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.4976515834477315</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.4577564972510319</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.4808760751954471</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.502138734673974</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1359360089498247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1356504547201669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1387168034683414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1482780758111726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1374810065886766</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.2368801028574993</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.2538056157919383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.2155813815600913</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.1750042018205558</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.1196449198505825</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.1560785763950273</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.1865636256174411</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.1469796804284053</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.09296152094231354</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.1413125717268775</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.08530328790149222</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.08540272184091749</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.05273048525756385</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.01269937037461472</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.004647462237160822</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.004024158447438902</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.001265354303489145</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.0001281357255127289</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>5.441854694818038e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>3.657306938084295e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>1.514610649542024e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>1.001953450980954e-08</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>1.680990448968909e-10</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1421086461994589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1437157401574117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.1445885885126579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1431095976343895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1412026850281694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1557744494620042</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1709939652478565</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1576876308810135</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1481367346923416</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1182858327908912</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.1377358089298311</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1527720260383516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1542971713214059</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.1336186491255481</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.104258328304515</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.1024433347617949</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.06405049235764602</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.05900954846934222</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.07826690333731705</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.05083035644425176</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.02495008206235887</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.01315182228807989</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.008334978179197932</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.009423318125152276</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.009174403339640761</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.007573420337845062</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>0.002279272592140884</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>0.001549636606569941</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1453019799282043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1394641777560401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.136855478566911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1425122896159705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1486703214311543</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.1234932391786321</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.0938247072652782</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.1191202806204047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.1356386025167577</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.1840705274159797</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.08840462250403555</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.06026258183942565</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.02712885419508853</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.009990375405075908</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.004970467891744426</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.001023027952211655</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.000276765583216209</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>7.940373374244928e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>6.443773289793511e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>1.693462641234024e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>5.059929530608092e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>1.609352492575682e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>7.133682801106404e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>3.644312029257387e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>2.315063039109305e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>1.651744054860983e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>3.484422401067015e-10</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>2.036960531441058e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1453019836313878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1394641731488526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1368554698699095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1425122887030792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1486703298691267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.1234935508438367</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.09382524163295901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.1191206073676164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.1356387199192146</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.1840700804578653</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.2260037908979261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.2297247820054168</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.2580546513858899</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.2987556732775778</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.3311819659238184</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.34012763878214</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.3638139022460822</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.377800668204595</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.3739786442198303</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.4002291727735519</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.480103004891252</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.5375271890392663</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.5730878469984358</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.4796012928206007</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.4457836209664378</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.4497640199229307</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.4824230772834039</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.4890886762183001</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1453033776801915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1394624388419589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1368521959662769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1425119450173492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1486735062758592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.1234908625018944</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.09381799633323491</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.1191175575839542</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.1356396998298849</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.1840820099723461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.2135305283368771</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.236862238097891</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.2377776723435095</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.2037837744503095</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.1577806018046197</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.1555649078252009</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.09843981304503356</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.09141484924705408</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.1206833165324036</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.07940451170161242</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.04298250269155972</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.02476536125979641</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.01669054601735917</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.02142938546201772</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.0246598373213188</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>0.02099224057414867</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>0.006987532795079324</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>0.004947566790426014</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1391671348858383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1481701274266001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1520334837703304</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1432238681207889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1339500066073985</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.1566340450865691</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.1852515037317049</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.1611703268142083</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.1462756532415506</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.1044028028969562</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.1278431569128369</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.1275869013958627</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.1430365114785343</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.1686310851363286</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.1964990634532368</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.1985540751159558</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.237433647817902</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.2359115685007288</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.212039580461327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.233187677487645</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.1997445513545073</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.1689791533674904</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.1480850241057232</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.2174101893356445</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.2474538238563458</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.2484989389911285</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.2481542609634726</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.2476264605454035</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.1435018574691594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1417905250802893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.141160173539095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1428992271513871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1445089483711342</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.160311657470228</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1772406157339457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1625217009700752</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1521659401401272</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.1201834229993776</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.07799278058762228</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.06438557588457608</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.03571708072180218</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.01566759206203799</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.008455398710591686</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.002804790408422432</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.0008326868409049272</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.0002820995563300206</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.0002878661012620571</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>8.372334878967992e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>2.628327243147269e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>8.814146034269066e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>4.058332265915331e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>2.242007837773267e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>2.553462575337186e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>1.847080070605554e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>4.005544145393125e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>2.369984172709002e-09</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1393150202057599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1479328175888475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.1516546097748195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1432307837570358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1343242024171576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.1568021954568354</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.1850459700550209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.1612618957627277</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.1465046496601232</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.1049053234665839</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.1284893118308711</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.1284058947384763</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.1439880585537698</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.169552850543122</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.196854173911474</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.1994822251542744</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.2351526921092153</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.2355018622882074</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.2146792516149622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.2362476236177369</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.2521885157983599</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.2555660505468402</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.2537968329987378</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.2721332078175442</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.272928286666568</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.2731713600514022</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.260155852011917</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.2567876572656203</v>
       </c>
     </row>
   </sheetData>
